--- a/文档/提升.xlsx
+++ b/文档/提升.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD8F165-CDF1-47EE-A579-21F15937145D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329E019A-318D-452A-AE68-4F73BF440A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="386">
   <si>
     <t>科技
 编注：请在对于某种胜利极其重要，需要倾尽全力加速的科技上标注黄色背景</t>
@@ -1187,6 +1187,10 @@
   </si>
   <si>
     <t>人口达到7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造2座采石场</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1284,9 +1288,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1295,6 +1296,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1574,7 +1578,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1619,16 +1623,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -1792,7 +1796,7 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>384</v>
       </c>
       <c r="J8" s="2"/>
@@ -1807,7 +1811,7 @@
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>381</v>
       </c>
       <c r="E9" t="s">
@@ -1849,8 +1853,8 @@
       <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
+      <c r="D11" s="9" t="s">
+        <v>385</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -1885,16 +1889,16 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
@@ -2100,16 +2104,16 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2313,16 +2317,16 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
@@ -2535,16 +2539,16 @@
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
@@ -2724,7 +2728,7 @@
       <c r="G49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="8" t="s">
         <v>383</v>
       </c>
     </row>
@@ -2747,16 +2751,16 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
@@ -2866,7 +2870,7 @@
       <c r="A56" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>382</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -2985,16 +2989,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
@@ -3179,16 +3183,16 @@
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
@@ -3394,16 +3398,16 @@
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">

--- a/文档/提升.xlsx
+++ b/文档/提升.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CCAEE5-04D4-4575-83BB-CB92FEBE86CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B30A189-F72A-49CD-AB0D-7DA02EB90885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="10440" windowWidth="38610" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="10440" windowWidth="19410" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,9 +535,6 @@
     <t>很高，一个火枪大几百块，找不到人杀血本无归</t>
   </si>
   <si>
-    <t>拥有3个火枪手</t>
-  </si>
-  <si>
     <t>CIVIC_THE_ENLIGHTENMENT</t>
   </si>
   <si>
@@ -1210,6 +1207,10 @@
   </si>
   <si>
     <t>建设1座公立学校（统一的教育催生了统一的民族性）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有2个火枪手</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1316,10 +1317,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1599,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1617,19 +1618,19 @@
   <sheetData>
     <row r="1" spans="1:10" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>372</v>
+      <c r="C1" s="11" t="s">
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1645,16 +1646,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -1810,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1819,7 +1820,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -1834,7 +1835,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -1876,7 +1877,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -1911,16 +1912,16 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
@@ -2075,7 +2076,7 @@
         <v>88</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>8</v>
@@ -2126,16 +2127,16 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2339,16 +2340,16 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
@@ -2490,14 +2491,14 @@
       <c r="C38" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>70</v>
@@ -2508,10 +2509,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>19</v>
@@ -2526,16 +2527,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2544,10 +2545,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>70</v>
@@ -2561,49 +2562,49 @@
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="A42" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>70</v>
@@ -2612,50 +2613,50 @@
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="H44" t="s">
         <v>191</v>
-      </c>
-      <c r="H44" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
@@ -2664,76 +2665,76 @@
         <v>8</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>70</v>
@@ -2742,30 +2743,30 @@
         <v>8</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2773,162 +2774,162 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="A51" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="H54" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>381</v>
+      <c r="D57" s="11" t="s">
+        <v>380</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>7</v>
@@ -2942,36 +2943,36 @@
     </row>
     <row r="58" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>78</v>
@@ -2980,16 +2981,16 @@
         <v>8</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2998,48 +2999,48 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H60" s="2" t="s">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="12" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>147</v>
@@ -3048,10 +3049,10 @@
     </row>
     <row r="63" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -3060,24 +3061,24 @@
         <v>8</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>70</v>
@@ -3086,50 +3087,50 @@
         <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>19</v>
@@ -3138,24 +3139,24 @@
         <v>8</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>78</v>
@@ -3170,10 +3171,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -3188,16 +3189,16 @@
     </row>
     <row r="69" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -3205,199 +3206,199 @@
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="A70" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="H72" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>383</v>
+      <c r="D77" s="11" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -3406,10 +3407,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -3420,23 +3421,23 @@
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A80" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
+      <c r="A80" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -3445,7 +3446,7 @@
         <v>8</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>6</v>
@@ -3457,10 +3458,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>7</v>
@@ -3469,7 +3470,7 @@
         <v>8</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>6</v>
@@ -3481,10 +3482,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>7</v>
@@ -3493,7 +3494,7 @@
         <v>8</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>6</v>
@@ -3505,10 +3506,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>7</v>
@@ -3517,7 +3518,7 @@
         <v>8</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>6</v>
@@ -3529,10 +3530,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -3541,7 +3542,7 @@
         <v>8</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>6</v>
@@ -3553,10 +3554,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -3565,7 +3566,7 @@
         <v>8</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>6</v>
@@ -3577,10 +3578,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>7</v>
@@ -3589,7 +3590,7 @@
         <v>8</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>6</v>
@@ -3600,7 +3601,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
